--- a/biology/Médecine/Swiss_Medical_Network_SA/Swiss_Medical_Network_SA.xlsx
+++ b/biology/Médecine/Swiss_Medical_Network_SA/Swiss_Medical_Network_SA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Swiss Medical Network SA est un groupe de cliniques privées de Suisse comprenant, en 2014, 16 établissements médicaux, 1 300 médecins agréés et 2 500 collaborateurs. Le groupe est une filiale d’AEVIS Holding SA.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le groupe a été créé en 2002.
 Le nom de groupe remonte à la clinique de Genolier qui a été fondée en 1972 dans la localité vaudoise homonyme. Dans les années suivantes, de nombreux établissements ont été acquis afin de créer un réseau national de cliniques privées:
@@ -520,14 +534,14 @@
 2003 : Reprise de la clinique de Montchoisi à Lausanne, VD (fondée en 1923)
 2005 : Rachat de la clinique Valmont à Glion, VD (fondée en 1905) et des cliniques Sainte-Anne et Garcia à Fribourg (Les deux cliniques fusionnent et deviennent la clinique générale Ste-Anne)
 2007 : Le centre d’oncologie de Genève, unique centre de radio-oncologie privé de Genève a ouvert ses portes le 1er septembre 2007.
-2008 : La holding change de nom. AGEN Holding devient Genolier Swiss Medical Network[1].
-2009 : Le centre médico-chirurgical des Eaux-Vives à Genève devient une filiale à 100 % du groupe[2].
-2010 : Rachat de la Privatklinik Bethanien à Zurich (fondée en 1912)[3]
-2011 : Rachat de la Privatklinik Lindberg à Winterthour à 49 % (fondée en 1906)[4], coopération avec Klinik Pyramide am See à Zurich pour 20 %[5].
-2012 : Privatklinik Obach à Soleure (fondée en 1922)[6], Clinica Ars Medica à Gravesano (fondée en 1989) et Clinica Sant‘Anna à Lugano, TI (fondée en 1922)[7], Privatklinik Lindberg AG devient une filiale à 100 % du groupe GSMN[8].
-2013 : Rachat de la clinique de Valère à Sion, VS (fondée en 1920)[9], de l’Hôpital de la Providence à Neuchâtel (fondée en 1859)[10]  et de Privatklinik Villa im Park à Rothrist (fondée en 1984)[11]
-2014 : Rachat de la Schmerzklinik à Bâle (fondée en 1978)[12]
-2015 : Rachat de la clinique Montbrillant à La Chaux-de-Fonds[13]
+2008 : La holding change de nom. AGEN Holding devient Genolier Swiss Medical Network.
+2009 : Le centre médico-chirurgical des Eaux-Vives à Genève devient une filiale à 100 % du groupe.
+2010 : Rachat de la Privatklinik Bethanien à Zurich (fondée en 1912)
+2011 : Rachat de la Privatklinik Lindberg à Winterthour à 49 % (fondée en 1906), coopération avec Klinik Pyramide am See à Zurich pour 20 %.
+2012 : Privatklinik Obach à Soleure (fondée en 1922), Clinica Ars Medica à Gravesano (fondée en 1989) et Clinica Sant‘Anna à Lugano, TI (fondée en 1922), Privatklinik Lindberg AG devient une filiale à 100 % du groupe GSMN.
+2013 : Rachat de la clinique de Valère à Sion, VS (fondée en 1920), de l’Hôpital de la Providence à Neuchâtel (fondée en 1859)  et de Privatklinik Villa im Park à Rothrist (fondée en 1984)
+2014 : Rachat de la Schmerzklinik à Bâle (fondée en 1978)
+2015 : Rachat de la clinique Montbrillant à La Chaux-de-Fonds
 2016 : Rachat de la Clinique Générale-Beaulieu à Genève</t>
         </is>
       </c>
@@ -556,7 +570,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
